--- a/doc/04_배포/2.1.4/마켓플레이스_퍼블리싱_수정요청사항_20210104.xlsx
+++ b/doc/04_배포/2.1.4/마켓플레이스_퍼블리싱_수정요청사항_20210104.xlsx
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
